--- a/soft/blank_zakaza one.xlsx
+++ b/soft/blank_zakaza one.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YSA\Kvartira\kvartira\soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8FA33DC3-EA50-4DF3-9091-1DC57B70A56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ACF2D8-C9EB-4717-96B9-24146A4B4F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Раскрой" sheetId="5" r:id="rId1"/>
     <sheet name="Раскройолд" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Раскрой!$A$9:$N$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Раскрой!$A$1:$W$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Раскрой!$A$9:$N$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Раскрой!$A$1:$W$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Раскройолд!$A$1:$K$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="71">
   <si>
     <t>Заказчик (Ф.И.О):</t>
   </si>
@@ -250,15 +250,36 @@
   <si>
     <t xml:space="preserve">       ЛДСП Эггер Синий дымчатый 18 мм U502 ST9.</t>
   </si>
+  <si>
+    <t>направление текстуры по длинной стороне</t>
+  </si>
+  <si>
+    <t>мойка</t>
+  </si>
+  <si>
+    <t>цоколь</t>
+  </si>
+  <si>
+    <t>верх</t>
+  </si>
+  <si>
+    <t>низ выдвижных</t>
+  </si>
+  <si>
+    <t>ЛДСП Эггер Дуб Бардолино Натуральный 2800х2070х10 мм H1145 ST10.</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,8 +480,20 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,8 +506,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -989,12 +1034,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1142,6 +1200,78 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,6 +1296,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,14 +1341,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1244,21 +1389,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1364,64 +1494,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1912,14 +2009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,7 +2032,8 @@
     <col min="12" max="12" width="16.44140625" style="33" customWidth="1"/>
     <col min="13" max="13" width="20" style="33" customWidth="1"/>
     <col min="14" max="14" width="24.109375" style="33" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="33"/>
+    <col min="15" max="15" width="12" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1955,13 +2053,13 @@
         <v>54</v>
       </c>
       <c r="B2" s="32"/>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
       <c r="L2" s="35"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
@@ -1973,13 +2071,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94"/>
       <c r="K3" s="49" t="s">
         <v>52</v>
       </c>
@@ -1992,13 +2090,13 @@
       <c r="A4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
       <c r="L4" s="36"/>
       <c r="M4" s="37"/>
       <c r="N4" s="37"/>
@@ -2022,921 +2120,1977 @@
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
-      <c r="F6" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
+      <c r="F6" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
     </row>
     <row r="7" spans="1:16" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="45"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
+      <c r="F7" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
     </row>
     <row r="8" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
       <c r="J8" s="40"/>
       <c r="K8" s="38"/>
       <c r="L8" s="41"/>
       <c r="M8" s="38"/>
       <c r="N8" s="34"/>
     </row>
-    <row r="9" spans="1:16" s="130" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="125" t="s">
+    <row r="9" spans="1:16" s="56" customFormat="1" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="126" t="s">
+      <c r="G9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="126" t="s">
+      <c r="H9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="126" t="s">
+      <c r="J9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="126" t="s">
+      <c r="K9" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="127" t="s">
+      <c r="L9" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="128" t="s">
+      <c r="M9" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="129" t="s">
+      <c r="N9" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="134"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="85"/>
     </row>
     <row r="11" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140">
-        <v>1</v>
-      </c>
-      <c r="B11" s="141">
+      <c r="A11" s="63">
+        <v>1</v>
+      </c>
+      <c r="B11" s="64">
         <v>18</v>
       </c>
-      <c r="C11" s="142">
+      <c r="C11" s="65">
         <v>600</v>
       </c>
-      <c r="D11" s="142">
+      <c r="D11" s="65">
         <v>350</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="63">
         <v>8</v>
       </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140">
-        <v>1</v>
-      </c>
-      <c r="H11" s="140">
-        <v>1</v>
-      </c>
-      <c r="I11" s="140">
-        <v>1</v>
-      </c>
-      <c r="J11" s="143" t="s">
+      <c r="F11" s="63"/>
+      <c r="G11" s="63">
+        <v>1</v>
+      </c>
+      <c r="H11" s="63">
+        <v>1</v>
+      </c>
+      <c r="I11" s="63">
+        <v>1</v>
+      </c>
+      <c r="J11" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="143" t="s">
+      <c r="K11" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="143" t="s">
+      <c r="L11" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="143" t="s">
+      <c r="M11" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="144" t="s">
+      <c r="N11" s="67" t="s">
         <v>60</v>
       </c>
+      <c r="O11" s="70" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="140">
+      <c r="A12" s="63">
         <v>2</v>
       </c>
-      <c r="B12" s="141">
+      <c r="B12" s="64">
         <v>18</v>
       </c>
-      <c r="C12" s="142">
+      <c r="C12" s="65">
         <v>300</v>
       </c>
-      <c r="D12" s="142">
+      <c r="D12" s="65">
         <v>350</v>
       </c>
-      <c r="E12" s="140">
+      <c r="E12" s="63">
         <v>2</v>
       </c>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140">
-        <v>1</v>
-      </c>
-      <c r="H12" s="140">
-        <v>1</v>
-      </c>
-      <c r="I12" s="140">
-        <v>1</v>
-      </c>
-      <c r="J12" s="143" t="s">
+      <c r="F12" s="63"/>
+      <c r="G12" s="63">
+        <v>1</v>
+      </c>
+      <c r="H12" s="63">
+        <v>1</v>
+      </c>
+      <c r="I12" s="63">
+        <v>1</v>
+      </c>
+      <c r="J12" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="143" t="s">
+      <c r="K12" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="143" t="s">
+      <c r="L12" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="143" t="s">
+      <c r="M12" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="144" t="s">
+      <c r="N12" s="67" t="s">
         <v>60</v>
       </c>
+      <c r="O12" s="70"/>
     </row>
     <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="140">
+      <c r="A13" s="63">
         <v>3</v>
       </c>
-      <c r="B13" s="141">
+      <c r="B13" s="64">
         <v>18</v>
       </c>
-      <c r="C13" s="142">
+      <c r="C13" s="65">
         <v>714</v>
       </c>
-      <c r="D13" s="142">
+      <c r="D13" s="65">
         <v>350</v>
       </c>
-      <c r="E13" s="140">
+      <c r="E13" s="63">
         <v>10</v>
       </c>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140">
-        <v>1</v>
-      </c>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="143" t="s">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63">
+        <v>1</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="143" t="s">
+      <c r="K13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="143" t="s">
+      <c r="L13" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="143" t="s">
+      <c r="M13" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="144" t="s">
+      <c r="N13" s="67" t="s">
         <v>60</v>
       </c>
+      <c r="O13" s="70"/>
     </row>
     <row r="14" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="140">
+      <c r="A14" s="63">
         <v>4</v>
       </c>
-      <c r="B14" s="141">
+      <c r="B14" s="64">
         <v>18</v>
       </c>
-      <c r="C14" s="142">
+      <c r="C14" s="65">
         <v>564</v>
       </c>
-      <c r="D14" s="142">
+      <c r="D14" s="65">
         <v>300</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="63">
         <v>3</v>
       </c>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140">
-        <v>1</v>
-      </c>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="143" t="s">
+      <c r="F14" s="63"/>
+      <c r="G14" s="63">
+        <v>1</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="143" t="s">
+      <c r="K14" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="143" t="s">
+      <c r="L14" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="143" t="s">
+      <c r="M14" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="143" t="s">
+      <c r="N14" s="66" t="s">
         <v>61</v>
       </c>
+      <c r="O14" s="70"/>
     </row>
     <row r="15" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="140">
+      <c r="A15" s="63">
         <v>5</v>
       </c>
-      <c r="B15" s="141">
+      <c r="B15" s="64">
         <v>18</v>
       </c>
-      <c r="C15" s="142">
+      <c r="C15" s="65">
         <v>264</v>
       </c>
-      <c r="D15" s="142">
+      <c r="D15" s="65">
         <v>300</v>
       </c>
-      <c r="E15" s="140">
-        <v>1</v>
-      </c>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140">
-        <v>1</v>
-      </c>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="143" t="s">
+      <c r="E15" s="63">
+        <v>1</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63">
+        <v>1</v>
+      </c>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="143" t="s">
+      <c r="K15" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="143" t="s">
+      <c r="L15" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="143" t="s">
+      <c r="M15" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="141" t="s">
+      <c r="N15" s="64" t="s">
         <v>61</v>
       </c>
+      <c r="O15" s="70"/>
     </row>
     <row r="16" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="140">
+      <c r="A16" s="63">
         <v>6</v>
       </c>
-      <c r="B16" s="141">
+      <c r="B16" s="64">
         <v>18</v>
       </c>
-      <c r="C16" s="142">
+      <c r="C16" s="65">
         <v>750</v>
       </c>
-      <c r="D16" s="142">
+      <c r="D16" s="65">
         <v>298</v>
       </c>
-      <c r="E16" s="140">
+      <c r="E16" s="63">
         <v>7</v>
       </c>
-      <c r="F16" s="140">
-        <v>1</v>
-      </c>
-      <c r="G16" s="140">
-        <v>1</v>
-      </c>
-      <c r="H16" s="140">
-        <v>1</v>
-      </c>
-      <c r="I16" s="140">
-        <v>1</v>
-      </c>
-      <c r="J16" s="143" t="s">
+      <c r="F16" s="63">
+        <v>1</v>
+      </c>
+      <c r="G16" s="63">
+        <v>1</v>
+      </c>
+      <c r="H16" s="63">
+        <v>1</v>
+      </c>
+      <c r="I16" s="63">
+        <v>1</v>
+      </c>
+      <c r="J16" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="131" t="s">
+      <c r="K16" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="143" t="s">
+      <c r="L16" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="143" t="s">
+      <c r="M16" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="143" t="s">
+      <c r="N16" s="66" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="140">
+      <c r="O16" s="70"/>
+    </row>
+    <row r="17" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="63">
         <v>7</v>
       </c>
-      <c r="B17" s="141">
+      <c r="B17" s="64">
         <v>18</v>
       </c>
-      <c r="C17" s="142">
+      <c r="C17" s="65">
         <v>374</v>
       </c>
-      <c r="D17" s="142">
+      <c r="D17" s="65">
         <v>598</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="63">
         <v>2</v>
       </c>
-      <c r="F17" s="140">
-        <v>1</v>
-      </c>
-      <c r="G17" s="140">
-        <v>1</v>
-      </c>
-      <c r="H17" s="140">
-        <v>1</v>
-      </c>
-      <c r="I17" s="140">
-        <v>1</v>
-      </c>
-      <c r="J17" s="143" t="s">
+      <c r="F17" s="63">
+        <v>1</v>
+      </c>
+      <c r="G17" s="63">
+        <v>1</v>
+      </c>
+      <c r="H17" s="63">
+        <v>1</v>
+      </c>
+      <c r="I17" s="63">
+        <v>1</v>
+      </c>
+      <c r="J17" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="131" t="s">
+      <c r="K17" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="143" t="s">
+      <c r="L17" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="143" t="s">
+      <c r="M17" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="141" t="s">
+      <c r="N17" s="66" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="140">
+      <c r="O17" s="70"/>
+    </row>
+    <row r="18" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63">
         <v>8</v>
       </c>
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-    </row>
-    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="140"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="141"/>
-    </row>
-    <row r="20" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="141"/>
-    </row>
-    <row r="21" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="140"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-    </row>
-    <row r="22" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="140"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-    </row>
-    <row r="23" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="140"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-    </row>
-    <row r="24" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="140"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-    </row>
-    <row r="25" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="140"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-    </row>
-    <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="140"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-    </row>
-    <row r="27" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="140"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-    </row>
-    <row r="28" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="140"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
-    </row>
-    <row r="29" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="140"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
-    </row>
-    <row r="30" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="140"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="141"/>
-    </row>
-    <row r="31" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="140"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-    </row>
-    <row r="32" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="140"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="143"/>
-    </row>
-    <row r="33" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="140"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="143"/>
-      <c r="N33" s="143"/>
-    </row>
-    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="140"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
-    </row>
-    <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="140"/>
-      <c r="B35" s="141"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-    </row>
-    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="140"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="143"/>
-      <c r="N36" s="143"/>
-    </row>
-    <row r="37" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="140"/>
-      <c r="B37" s="141"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143"/>
-      <c r="N37" s="141"/>
-    </row>
-    <row r="38" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="140"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="141"/>
-    </row>
-    <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="140"/>
-      <c r="B39" s="141"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-    </row>
-    <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="140"/>
-      <c r="B40" s="141"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="143"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="143"/>
-      <c r="N40" s="143"/>
-    </row>
-    <row r="41" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="135" t="s">
+      <c r="B18" s="64">
+        <v>18</v>
+      </c>
+      <c r="C18" s="65">
+        <v>450</v>
+      </c>
+      <c r="D18" s="65">
+        <v>100</v>
+      </c>
+      <c r="E18" s="63">
+        <v>1</v>
+      </c>
+      <c r="F18" s="63">
+        <v>1</v>
+      </c>
+      <c r="G18" s="63">
+        <v>1</v>
+      </c>
+      <c r="H18" s="63">
+        <v>1</v>
+      </c>
+      <c r="I18" s="63">
+        <v>1</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63">
+        <v>9</v>
+      </c>
+      <c r="B19" s="64">
+        <v>18</v>
+      </c>
+      <c r="C19" s="65">
+        <v>760</v>
+      </c>
+      <c r="D19" s="65">
+        <v>100</v>
+      </c>
+      <c r="E19" s="63">
+        <v>1</v>
+      </c>
+      <c r="F19" s="63">
+        <v>1</v>
+      </c>
+      <c r="G19" s="63">
+        <v>1</v>
+      </c>
+      <c r="H19" s="63">
+        <v>1</v>
+      </c>
+      <c r="I19" s="63">
+        <v>1</v>
+      </c>
+      <c r="J19" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="64"/>
+      <c r="O19" s="70"/>
+    </row>
+    <row r="20" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="63">
+        <v>10</v>
+      </c>
+      <c r="B20" s="64">
+        <v>18</v>
+      </c>
+      <c r="C20" s="65">
+        <v>2580</v>
+      </c>
+      <c r="D20" s="65">
+        <v>100</v>
+      </c>
+      <c r="E20" s="63">
+        <v>1</v>
+      </c>
+      <c r="F20" s="63">
+        <v>1</v>
+      </c>
+      <c r="G20" s="63">
+        <v>1</v>
+      </c>
+      <c r="H20" s="63">
+        <v>1</v>
+      </c>
+      <c r="I20" s="63">
+        <v>1</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="70"/>
+    </row>
+    <row r="21" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="63">
+        <v>11</v>
+      </c>
+      <c r="B21" s="64">
+        <v>18</v>
+      </c>
+      <c r="C21" s="65">
+        <v>438</v>
+      </c>
+      <c r="D21" s="65">
+        <v>100</v>
+      </c>
+      <c r="E21" s="63">
+        <v>1</v>
+      </c>
+      <c r="F21" s="63">
+        <v>1</v>
+      </c>
+      <c r="G21" s="63">
+        <v>1</v>
+      </c>
+      <c r="H21" s="63">
+        <v>1</v>
+      </c>
+      <c r="I21" s="63">
+        <v>1</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="70"/>
+    </row>
+    <row r="22" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63">
+        <v>12</v>
+      </c>
+      <c r="B22" s="64">
+        <v>18</v>
+      </c>
+      <c r="C22" s="65">
+        <v>535</v>
+      </c>
+      <c r="D22" s="65">
+        <v>662</v>
+      </c>
+      <c r="E22" s="63">
+        <v>1</v>
+      </c>
+      <c r="F22" s="63">
+        <v>1</v>
+      </c>
+      <c r="G22" s="63">
+        <v>1</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="63">
+        <v>13</v>
+      </c>
+      <c r="B23" s="64">
+        <v>18</v>
+      </c>
+      <c r="C23" s="65">
+        <v>580</v>
+      </c>
+      <c r="D23" s="65">
+        <v>553</v>
+      </c>
+      <c r="E23" s="63">
+        <v>1</v>
+      </c>
+      <c r="F23" s="63">
+        <v>1</v>
+      </c>
+      <c r="G23" s="63">
+        <v>1</v>
+      </c>
+      <c r="H23" s="63">
+        <v>1</v>
+      </c>
+      <c r="I23" s="63">
+        <v>1</v>
+      </c>
+      <c r="J23" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="71"/>
+    </row>
+    <row r="24" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="63">
+        <v>14</v>
+      </c>
+      <c r="B24" s="64">
+        <v>18</v>
+      </c>
+      <c r="C24" s="65">
+        <v>812</v>
+      </c>
+      <c r="D24" s="65">
+        <v>555</v>
+      </c>
+      <c r="E24" s="63">
+        <v>1</v>
+      </c>
+      <c r="F24" s="63">
+        <v>1</v>
+      </c>
+      <c r="G24" s="63">
+        <v>1</v>
+      </c>
+      <c r="H24" s="63">
+        <v>1</v>
+      </c>
+      <c r="I24" s="63">
+        <v>1</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="71"/>
+    </row>
+    <row r="25" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63">
+        <v>15</v>
+      </c>
+      <c r="B25" s="64">
+        <v>18</v>
+      </c>
+      <c r="C25" s="65">
+        <v>794</v>
+      </c>
+      <c r="D25" s="65">
+        <v>100</v>
+      </c>
+      <c r="E25" s="63">
+        <v>1</v>
+      </c>
+      <c r="F25" s="63">
+        <v>1</v>
+      </c>
+      <c r="G25" s="63">
+        <v>1</v>
+      </c>
+      <c r="H25" s="63">
+        <v>1</v>
+      </c>
+      <c r="I25" s="63">
+        <v>1</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="71"/>
+    </row>
+    <row r="26" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63">
+        <v>16</v>
+      </c>
+      <c r="B26" s="64">
+        <v>18</v>
+      </c>
+      <c r="C26" s="65">
+        <v>794</v>
+      </c>
+      <c r="D26" s="65">
+        <v>120</v>
+      </c>
+      <c r="E26" s="63">
+        <v>1</v>
+      </c>
+      <c r="F26" s="63">
+        <v>1</v>
+      </c>
+      <c r="G26" s="63">
+        <v>1</v>
+      </c>
+      <c r="H26" s="63">
+        <v>1</v>
+      </c>
+      <c r="I26" s="63">
+        <v>1</v>
+      </c>
+      <c r="J26" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="71"/>
+    </row>
+    <row r="27" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="63">
+        <v>17</v>
+      </c>
+      <c r="B27" s="64">
+        <v>18</v>
+      </c>
+      <c r="C27" s="65">
+        <v>776</v>
+      </c>
+      <c r="D27" s="65">
+        <v>100</v>
+      </c>
+      <c r="E27" s="63">
+        <v>1</v>
+      </c>
+      <c r="F27" s="63">
+        <v>1</v>
+      </c>
+      <c r="G27" s="63">
+        <v>1</v>
+      </c>
+      <c r="H27" s="63">
+        <v>1</v>
+      </c>
+      <c r="I27" s="63">
+        <v>1</v>
+      </c>
+      <c r="J27" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" s="71"/>
+    </row>
+    <row r="28" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="63">
+        <v>18</v>
+      </c>
+      <c r="B28" s="64">
+        <v>18</v>
+      </c>
+      <c r="C28" s="65">
+        <v>776</v>
+      </c>
+      <c r="D28" s="65">
+        <v>80</v>
+      </c>
+      <c r="E28" s="63">
+        <v>1</v>
+      </c>
+      <c r="F28" s="63">
+        <v>1</v>
+      </c>
+      <c r="G28" s="63">
+        <v>1</v>
+      </c>
+      <c r="H28" s="63">
+        <v>1</v>
+      </c>
+      <c r="I28" s="63">
+        <v>1</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O28" s="71"/>
+    </row>
+    <row r="29" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="63">
+        <v>19</v>
+      </c>
+      <c r="B29" s="64">
+        <v>18</v>
+      </c>
+      <c r="C29" s="65">
+        <v>1199</v>
+      </c>
+      <c r="D29" s="65">
+        <v>80</v>
+      </c>
+      <c r="E29" s="63">
+        <v>2</v>
+      </c>
+      <c r="F29" s="63">
+        <v>1</v>
+      </c>
+      <c r="G29" s="63">
+        <v>1</v>
+      </c>
+      <c r="H29" s="63">
+        <v>1</v>
+      </c>
+      <c r="I29" s="63">
+        <v>1</v>
+      </c>
+      <c r="J29" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O29" s="71"/>
+    </row>
+    <row r="30" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="63">
+        <v>20</v>
+      </c>
+      <c r="B30" s="64">
+        <v>18</v>
+      </c>
+      <c r="C30" s="65">
+        <v>780</v>
+      </c>
+      <c r="D30" s="65">
+        <v>50</v>
+      </c>
+      <c r="E30" s="63">
+        <v>2</v>
+      </c>
+      <c r="F30" s="63">
+        <v>1</v>
+      </c>
+      <c r="G30" s="63">
+        <v>1</v>
+      </c>
+      <c r="H30" s="63">
+        <v>1</v>
+      </c>
+      <c r="I30" s="63">
+        <v>1</v>
+      </c>
+      <c r="J30" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="71"/>
+    </row>
+    <row r="31" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="63">
+        <v>21</v>
+      </c>
+      <c r="B31" s="64">
+        <v>18</v>
+      </c>
+      <c r="C31" s="65">
+        <v>562</v>
+      </c>
+      <c r="D31" s="65">
+        <v>80</v>
+      </c>
+      <c r="E31" s="63">
+        <v>1</v>
+      </c>
+      <c r="F31" s="63">
+        <v>1</v>
+      </c>
+      <c r="G31" s="63">
+        <v>1</v>
+      </c>
+      <c r="H31" s="63">
+        <v>1</v>
+      </c>
+      <c r="I31" s="63">
+        <v>1</v>
+      </c>
+      <c r="J31" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" s="71"/>
+    </row>
+    <row r="32" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="63">
+        <v>22</v>
+      </c>
+      <c r="B32" s="64">
+        <v>18</v>
+      </c>
+      <c r="C32" s="65">
+        <v>321</v>
+      </c>
+      <c r="D32" s="65">
+        <v>80</v>
+      </c>
+      <c r="E32" s="63">
+        <v>1</v>
+      </c>
+      <c r="F32" s="63">
+        <v>1</v>
+      </c>
+      <c r="G32" s="63">
+        <v>1</v>
+      </c>
+      <c r="H32" s="63">
+        <v>1</v>
+      </c>
+      <c r="I32" s="63">
+        <v>1</v>
+      </c>
+      <c r="J32" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="71"/>
+    </row>
+    <row r="33" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="63">
+        <v>23</v>
+      </c>
+      <c r="B33" s="64">
+        <v>18</v>
+      </c>
+      <c r="C33" s="65">
+        <v>501</v>
+      </c>
+      <c r="D33" s="65">
+        <v>80</v>
+      </c>
+      <c r="E33" s="63">
+        <v>1</v>
+      </c>
+      <c r="F33" s="63">
+        <v>1</v>
+      </c>
+      <c r="G33" s="63">
+        <v>1</v>
+      </c>
+      <c r="H33" s="63">
+        <v>1</v>
+      </c>
+      <c r="I33" s="63">
+        <v>1</v>
+      </c>
+      <c r="J33" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O33" s="71"/>
+    </row>
+    <row r="34" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="63">
+        <v>24</v>
+      </c>
+      <c r="B34" s="64">
+        <v>18</v>
+      </c>
+      <c r="C34" s="65">
+        <v>501</v>
+      </c>
+      <c r="D34" s="65">
+        <v>120</v>
+      </c>
+      <c r="E34" s="63">
+        <v>1</v>
+      </c>
+      <c r="F34" s="63">
+        <v>1</v>
+      </c>
+      <c r="G34" s="63">
+        <v>1</v>
+      </c>
+      <c r="H34" s="63">
+        <v>1</v>
+      </c>
+      <c r="I34" s="63">
+        <v>1</v>
+      </c>
+      <c r="J34" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="O34" s="71"/>
+    </row>
+    <row r="35" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="63">
+        <v>25</v>
+      </c>
+      <c r="B35" s="64">
+        <v>18</v>
+      </c>
+      <c r="C35" s="65">
+        <v>333</v>
+      </c>
+      <c r="D35" s="65">
+        <v>806</v>
+      </c>
+      <c r="E35" s="63">
+        <v>2</v>
+      </c>
+      <c r="F35" s="63">
+        <v>1</v>
+      </c>
+      <c r="G35" s="63">
+        <v>1</v>
+      </c>
+      <c r="H35" s="63">
+        <v>1</v>
+      </c>
+      <c r="I35" s="63">
+        <v>1</v>
+      </c>
+      <c r="J35" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O35" s="71"/>
+    </row>
+    <row r="36" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="63">
+        <v>26</v>
+      </c>
+      <c r="B36" s="64">
+        <v>18</v>
+      </c>
+      <c r="C36" s="65">
+        <v>598</v>
+      </c>
+      <c r="D36" s="65">
+        <v>401</v>
+      </c>
+      <c r="E36" s="63">
+        <v>4</v>
+      </c>
+      <c r="F36" s="63">
+        <v>1</v>
+      </c>
+      <c r="G36" s="63">
+        <v>1</v>
+      </c>
+      <c r="H36" s="63">
+        <v>1</v>
+      </c>
+      <c r="I36" s="63">
+        <v>1</v>
+      </c>
+      <c r="J36" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O36" s="156"/>
+    </row>
+    <row r="37" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="63">
+        <v>27</v>
+      </c>
+      <c r="B37" s="64">
+        <v>18</v>
+      </c>
+      <c r="C37" s="65">
+        <v>600</v>
+      </c>
+      <c r="D37" s="65">
+        <v>553</v>
+      </c>
+      <c r="E37" s="63">
+        <v>2</v>
+      </c>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63">
+        <v>1</v>
+      </c>
+      <c r="H37" s="63">
+        <v>1</v>
+      </c>
+      <c r="I37" s="63">
+        <v>1</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O37" s="156"/>
+    </row>
+    <row r="38" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="63">
+        <v>28</v>
+      </c>
+      <c r="B38" s="64">
+        <v>18</v>
+      </c>
+      <c r="C38" s="65">
+        <v>794</v>
+      </c>
+      <c r="D38" s="65">
+        <v>553</v>
+      </c>
+      <c r="E38" s="149">
+        <v>8</v>
+      </c>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63">
+        <v>1</v>
+      </c>
+      <c r="H38" s="63">
+        <v>1</v>
+      </c>
+      <c r="I38" s="63">
+        <v>1</v>
+      </c>
+      <c r="J38" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O38" s="156"/>
+    </row>
+    <row r="39" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="63">
+        <v>29</v>
+      </c>
+      <c r="B39" s="64">
+        <v>18</v>
+      </c>
+      <c r="C39" s="65">
+        <v>564</v>
+      </c>
+      <c r="D39" s="65">
+        <v>80</v>
+      </c>
+      <c r="E39" s="63">
+        <v>4</v>
+      </c>
+      <c r="F39" s="63">
+        <v>1</v>
+      </c>
+      <c r="G39" s="63">
+        <v>1</v>
+      </c>
+      <c r="H39" s="63">
+        <v>1</v>
+      </c>
+      <c r="I39" s="63">
+        <v>1</v>
+      </c>
+      <c r="J39" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O39" s="156"/>
+    </row>
+    <row r="40" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="63">
+        <v>30</v>
+      </c>
+      <c r="B40" s="64">
+        <v>18</v>
+      </c>
+      <c r="C40" s="65">
+        <v>545</v>
+      </c>
+      <c r="D40" s="65">
+        <v>120</v>
+      </c>
+      <c r="E40" s="63">
+        <v>8</v>
+      </c>
+      <c r="F40" s="63">
+        <v>1</v>
+      </c>
+      <c r="G40" s="63">
+        <v>1</v>
+      </c>
+      <c r="H40" s="63">
+        <v>1</v>
+      </c>
+      <c r="I40" s="63">
+        <v>1</v>
+      </c>
+      <c r="J40" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O40" s="156"/>
+    </row>
+    <row r="41" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="63">
         <v>31</v>
       </c>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="137">
-        <f>SUM(E11:E40)</f>
+      <c r="B41" s="64">
+        <v>18</v>
+      </c>
+      <c r="C41" s="65">
+        <v>505</v>
+      </c>
+      <c r="D41" s="65">
+        <v>120</v>
+      </c>
+      <c r="E41" s="63">
+        <v>4</v>
+      </c>
+      <c r="F41" s="63">
+        <v>1</v>
+      </c>
+      <c r="G41" s="63">
+        <v>1</v>
+      </c>
+      <c r="H41" s="63">
+        <v>1</v>
+      </c>
+      <c r="I41" s="63">
+        <v>1</v>
+      </c>
+      <c r="J41" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O41" s="156"/>
+    </row>
+    <row r="42" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="63">
+        <v>32</v>
+      </c>
+      <c r="B42" s="64">
+        <v>18</v>
+      </c>
+      <c r="C42" s="65">
+        <v>600</v>
+      </c>
+      <c r="D42" s="65">
+        <v>523</v>
+      </c>
+      <c r="E42" s="63">
+        <v>1</v>
+      </c>
+      <c r="F42" s="63">
+        <v>1</v>
+      </c>
+      <c r="G42" s="63">
+        <v>1</v>
+      </c>
+      <c r="H42" s="63">
+        <v>1</v>
+      </c>
+      <c r="I42" s="63">
+        <v>1</v>
+      </c>
+      <c r="J42" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L42" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O42" s="69"/>
+    </row>
+    <row r="43" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="63">
         <v>33</v>
       </c>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="138"/>
-      <c r="N41" s="139"/>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
+      <c r="B43" s="64">
+        <v>18</v>
+      </c>
+      <c r="C43" s="65">
+        <v>524</v>
+      </c>
+      <c r="D43" s="65">
+        <v>564</v>
+      </c>
+      <c r="E43" s="63">
+        <v>1</v>
+      </c>
+      <c r="F43" s="63">
+        <v>1</v>
+      </c>
+      <c r="G43" s="63">
+        <v>1</v>
+      </c>
+      <c r="H43" s="63">
+        <v>1</v>
+      </c>
+      <c r="I43" s="63">
+        <v>1</v>
+      </c>
+      <c r="J43" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O43" s="69"/>
+    </row>
+    <row r="44" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="63">
+        <v>34</v>
+      </c>
+      <c r="B44" s="64">
+        <v>18</v>
+      </c>
+      <c r="C44" s="65">
+        <v>564</v>
+      </c>
+      <c r="D44" s="65">
+        <v>50</v>
+      </c>
+      <c r="E44" s="63">
+        <v>2</v>
+      </c>
+      <c r="F44" s="63">
+        <v>1</v>
+      </c>
+      <c r="G44" s="63">
+        <v>1</v>
+      </c>
+      <c r="H44" s="63">
+        <v>1</v>
+      </c>
+      <c r="I44" s="63">
+        <v>1</v>
+      </c>
+      <c r="J44" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O44" s="69"/>
+    </row>
+    <row r="45" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="63">
+        <v>35</v>
+      </c>
+      <c r="B45" s="64">
+        <v>18</v>
+      </c>
+      <c r="C45" s="65">
+        <v>505</v>
+      </c>
+      <c r="D45" s="65">
+        <v>80</v>
+      </c>
+      <c r="E45" s="63">
+        <v>3</v>
+      </c>
+      <c r="F45" s="63">
+        <v>1</v>
+      </c>
+      <c r="G45" s="63">
+        <v>1</v>
+      </c>
+      <c r="H45" s="63">
+        <v>1</v>
+      </c>
+      <c r="I45" s="63">
+        <v>1</v>
+      </c>
+      <c r="J45" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O45" s="69"/>
+    </row>
+    <row r="46" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="63">
+        <v>36</v>
+      </c>
+      <c r="B46" s="64">
+        <v>18</v>
+      </c>
+      <c r="C46" s="65">
+        <v>598</v>
+      </c>
+      <c r="D46" s="157" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="63">
+        <v>2</v>
+      </c>
+      <c r="F46" s="63">
+        <v>1</v>
+      </c>
+      <c r="G46" s="63">
+        <v>1</v>
+      </c>
+      <c r="H46" s="63">
+        <v>1</v>
+      </c>
+      <c r="I46" s="63">
+        <v>1</v>
+      </c>
+      <c r="J46" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O46" s="69"/>
+    </row>
+    <row r="47" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="63">
+        <v>37</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="69"/>
+    </row>
+    <row r="48" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="63">
+        <v>38</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="69"/>
+    </row>
+    <row r="49" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="63">
+        <v>39</v>
+      </c>
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="64"/>
+    </row>
+    <row r="50" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="63">
         <v>40</v>
       </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-    </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-    </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-    </row>
-    <row r="45" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-    </row>
-    <row r="46" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="47" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="66"/>
+    </row>
+    <row r="51" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="149">
+        <v>0</v>
+      </c>
+      <c r="B51" s="150">
+        <v>10</v>
+      </c>
+      <c r="C51" s="151">
+        <v>545</v>
+      </c>
+      <c r="D51" s="151">
+        <v>538</v>
+      </c>
+      <c r="E51" s="149">
+        <v>5</v>
+      </c>
+      <c r="F51" s="149">
+        <v>1</v>
+      </c>
+      <c r="G51" s="149">
+        <v>1</v>
+      </c>
+      <c r="H51" s="149">
+        <v>1</v>
+      </c>
+      <c r="I51" s="149">
+        <v>1</v>
+      </c>
+      <c r="J51" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51" s="152"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="155" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60">
+        <f>SUM(E11:E51)</f>
+        <v>98</v>
+      </c>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="62"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
+    </row>
+    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+    </row>
+    <row r="56" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="82"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="82"/>
+    </row>
+    <row r="57" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-    </row>
-    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="B47" s="51" t="s">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+    </row>
+    <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58" s="48"/>
+      <c r="B58" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51" t="s">
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51" t="s">
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="31"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F6:N6"/>
     <mergeCell ref="F7:N7"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="O22:O35"/>
+    <mergeCell ref="O11:O17"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:I58"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="A42:N45"/>
+    <mergeCell ref="A53:N56"/>
     <mergeCell ref="A10:N10"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="30" orientation="portrait" r:id="rId3"/>
@@ -2945,7 +4099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -2980,157 +4134,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="105" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="107"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="131"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
       <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="113" t="s">
+      <c r="A3" s="146"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="115"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
     </row>
     <row r="4" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
+      <c r="A4" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
     </row>
     <row r="5" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
+      <c r="A5" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="100"/>
     </row>
     <row r="6" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="100"/>
     </row>
     <row r="7" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
     </row>
     <row r="8" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="93"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="98" t="s">
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="100" t="s">
+      <c r="G9" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101" t="s">
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="125" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="95"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="121"/>
       <c r="C10" s="27" t="s">
         <v>11</v>
       </c>
@@ -3140,7 +4294,7 @@
       <c r="E10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="123"/>
       <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
@@ -3153,7 +4307,7 @@
       <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="93"/>
+      <c r="K10" s="117"/>
       <c r="L10" s="3" t="s">
         <v>25</v>
       </c>
@@ -4894,58 +6048,58 @@
       <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="76"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="105"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="79"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="108"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="79"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="108"/>
     </row>
     <row r="62" spans="1:18" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="80"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="82"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="111"/>
     </row>
     <row r="63" spans="1:18" ht="18" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
@@ -4961,25 +6115,25 @@
       <c r="K63" s="7"/>
     </row>
     <row r="64" spans="1:18" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="84" t="s">
+      <c r="B64" s="112"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84" t="s">
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
-      <c r="J64" s="83" t="s">
+      <c r="H64" s="113"/>
+      <c r="I64" s="113"/>
+      <c r="J64" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="83"/>
+      <c r="K64" s="112"/>
     </row>
     <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
@@ -5015,7 +6169,6 @@
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="A1:C3"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="A9:A10"/>
@@ -5034,6 +6187,7 @@
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
